--- a/VerveStacks_ESP/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ESP/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A43930-3359-4EB2-B005-F4CDEA391B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E14AE-4552-4245-8511-11992D8DDCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2658,10 +2658,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0108h11,S1d0202h07,S2i0415h12,S3j0508h11,S3j0508h12,S3k0509h12,S3k0509h18,S4aH2,S4l0726h09,S4m0802h16,S4n1013h14,S5p1117h16,S1aH4,S1f0211h14,S1f0211h15,S1f0211h18,S1g0215h11,S1g0215h15,S1g0215h16,S2aH2,S2i0415h18,S3j0508h14,S3k0509h14,S4l0726h15,S4m0802h17,S4n1013h08,S5p1117h11,S1d0202h14,S1e0206h12,S1f0211h17,S1h0223h09,S2i0415h17,S4n1013h15,S5o1107h11,S5o1107h17,S1c0124h14,S1d0202h17,S1e0206h07,S1e0206h11,S1e0206h13,S1e0206h18,S1h0223h10,S1h0223h16,S2i0415h16,S3aH5,S4l0726h07,S4m0802h14,S4n1013h09,S5aH3,S5o1107h18,S1c0124h09,S1c0124h16,S1f0211h08,S1g0215h08,S1g0215h18,S3j0508h09,S3j0508h18,S3k0509h07,S4l0726h18,S4m0802h11,S5o1107h13,S5p1117h13,S1aH3,S1b0108h07,S1c0124h08,S1d0202h10,S1f0211h11,S1g0215h10,S4m0802h10,S1c0124h07,S1g0215h12,S1h0223h08,S1h0223h15,S1h0223h18,S2i0415h15,S3aH3,S3j0508h07,S3j0508h10,S3k0509h09,S4n1013h16,S1b0108h10,S1d0202h08,S1d0202h11,S1d0202h13,S1g0215h17,S1h0223h11,S4l0726h08,S4l0726h13,S4m0802h13,S4n1013h07,S4n1013h17,S5o1107h15,S5p1117h07,S5p1117h14,S1b0108h09,S1b0108h17,S1b0108h18,S1c0124h12,S1d0202h18,S1f0211h16,S1h0223h07,S2i0415h07,S2i0415h08,S2i0415h11,S4m0802h12,S4n1013h18,S5o1107h12,S5o1107h16,S5p1117h09,S1d0202h15,S3aH4,S3j0508h08,S3j0508h13,S3j0508h17,S3k0509h11,S4aH3,S4aH4,S4n1013h10,S5p1117h15,S5p1117h18,S1c0124h13,S1c0124h18,S1e0206h08,S1h0223h12,S1h0223h14,S3aH2,S3j0508h15,S4l0726h11,S4l0726h12,S4m0802h08,S5p1117h12,S5p1117h17,S1aH2,S1e0206h14,S1g0215h09,S1h0223h17,S2aH3,S2i0415h13,S3k0509h13,S3k0509h17,S4l0726h10,S5o1107h10,S5p1117h08,S5p1117h10,S1b0108h16,S1c0124h17,S1e0206h15,S1g0215h13,S3k0509h08,S3k0509h15,S4aH5,S4n1013h12,S5o1107h14,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0124h10,S1c0124h15,S1d0202h09,S1d0202h12,S1e0206h09,S1g0215h14,S1h0223h13,S2aH4,S2aH5,S2i0415h09,S2i0415h14,S3k0509h10,S4l0726h16,S5aH2,S5aH5,S5o1107h07,S5o1107h08,S1b0108h14,S1b0108h15,S1d0202h16,S1e0206h16,S1e0206h17,S1f0211h12,S2i0415h10,S3j0508h16,S4l0726h14,S4l0726h17,S4m0802h07,S4m0802h09,S4m0802h15,S4m0802h18,S4n1013h11,S4n1013h13,S5o1107h09,S1c0124h11,S1e0206h10,S1f0211h07,S1f0211h09,S1f0211h10,S1f0211h13,S1g0215h07,S3k0509h16,S5aH4</t>
-  </si>
-  <si>
-    <t>S1b0108h20,S1d0202h05,S1e0206h23,S2aH1,S3aH7,S3j0508h01,S3j0508h19,S3k0509h03,S3k0509h19,S3k0509h21,S4l0726h03,S5aH8,S5p1117h06,S1d0202h20,S1e0206h21,S1h0223h04,S3k0509h01,S4aH1,S5o1107h04,S5p1117h04,S1b0108h03,S1h0223h20,S3j0508h20,S3j0508h23,S4aH8,S4m0802h19,S4m0802h21,S5p1117h05,S1aH8,S1b0108h23,S1c0124h01,S1c0124h24,S1d0202h19,S1d0202h21,S1e0206h24,S1g0215h02,S1h0223h23,S2i0415h23,S3j0508h02,S3j0508h21,S4l0726h01,S4m0802h04,S4n1013h01,S4n1013h23,S4n1013h24,S5aH1,S5o1107h05,S5p1117h02,S1c0124h19,S1c0124h22,S1d0202h22,S1f0211h20,S1g0215h19,S1h0223h02,S2aH6,S2i0415h04,S2i0415h22,S3aH1,S5o1107h02,S1aH7,S1c0124h04,S1c0124h21,S1d0202h24,S1e0206h04,S3aH6,S4aH7,S4n1013h05,S4n1013h19,S5aH6,S5aH7,S5o1107h20,S5p1117h22,S1b0108h06,S1b0108h22,S1d0202h03,S1e0206h06,S1f0211h19,S4aH6,S4l0726h04,S4m0802h06,S4n1013h20,S5o1107h21,S1b0108h21,S3j0508h05,S3k0509h05,S4l0726h20,S4m0802h01,S4n1013h03,S4n1013h04,S1aH1,S1f0211h03,S2aH7,S2i0415h01,S4l0726h22,S4m0802h05,S4n1013h21,S1b0108h05,S1e0206h02,S1e0206h22,S1f0211h24,S1g0215h24,S1h0223h01,S1h0223h22,S2i0415h03,S3j0508h04,S3j0508h24,S3k0509h02,S4m0802h20,S5o1107h03,S1b0108h02,S1c0124h02,S1c0124h06,S1c0124h23,S1f0211h01,S1f0211h02,S1g0215h03,S1h0223h21,S2i0415h21,S3aH8,S3j0508h03,S3k0509h22,S5p1117h20,S1e0206h03,S1f0211h06,S1g0215h01,S1g0215h06,S2i0415h05,S2i0415h19,S2i0415h20,S3j0508h06,S3k0509h06,S3k0509h20,S4l0726h24,S4m0802h03,S5o1107h23,S5o1107h24,S1d0202h01,S1f0211h21,S1f0211h22,S1g0215h23,S1h0223h03,S2i0415h02,S2i0415h06,S3k0509h24,S4l0726h06,S4n1013h06,S4n1013h22,S5p1117h01,S5p1117h19,S1aH6,S1b0108h01,S1c0124h20,S1d0202h04,S1e0206h20,S1f0211h05,S1g0215h04,S1h0223h05,S1h0223h06,S1h0223h19,S1h0223h24,S3j0508h22,S3k0509h04,S4l0726h19,S4l0726h21,S4l0726h23,S4m0802h24,S5o1107h22,S1b0108h04,S1b0108h19,S1b0108h24,S1d0202h23,S1e0206h05,S1f0211h23,S1g0215h05,S1g0215h21,S1g0215h22,S2aH8,S2i0415h24,S3k0509h23,S4l0726h05,S4m0802h22,S5o1107h01,S5o1107h06,S5o1107h19,S5p1117h21,S5p1117h23,S1c0124h03,S1c0124h05,S1d0202h02,S1d0202h06,S1e0206h01,S1e0206h19,S1f0211h04,S1g0215h20,S4l0726h02,S4m0802h02,S4m0802h23,S4n1013h02,S5p1117h03,S5p1117h24</t>
+    <t>S1b0108h11,S1d0202h07,S2i0415h12,S3j0508h11,S3j0508h12,S3k0509h12,S3k0509h18,S4aH2,S4l0726h09,S4m0802h16,S4n1013h14,S5p1117h16,S1c0124h13,S1c0124h18,S1e0206h08,S1h0223h12,S1h0223h14,S3aH2,S3j0508h15,S4l0726h11,S4l0726h12,S4m0802h08,S5p1117h12,S5p1117h17,S1c0124h07,S1g0215h12,S1h0223h08,S1h0223h15,S1h0223h18,S2i0415h15,S3aH3,S3j0508h07,S3j0508h10,S3k0509h09,S4n1013h16,S1d0202h14,S1e0206h12,S1f0211h17,S1h0223h09,S2i0415h17,S4n1013h15,S5o1107h11,S5o1107h17,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0124h10,S1c0124h15,S1d0202h09,S1d0202h12,S1e0206h09,S1g0215h14,S1h0223h13,S2aH4,S2aH5,S2i0415h09,S2i0415h14,S3k0509h10,S4l0726h16,S5aH2,S5aH5,S5o1107h07,S5o1107h08,S1b0108h09,S1b0108h17,S1b0108h18,S1c0124h12,S1d0202h18,S1f0211h16,S1h0223h07,S2i0415h07,S2i0415h08,S2i0415h11,S4m0802h12,S4n1013h18,S5o1107h12,S5o1107h16,S5p1117h09,S1c0124h09,S1c0124h16,S1f0211h08,S1g0215h08,S1g0215h18,S3j0508h09,S3j0508h18,S3k0509h07,S4l0726h18,S4m0802h11,S5o1107h13,S5p1117h13,S1aH3,S1b0108h07,S1c0124h08,S1d0202h10,S1f0211h11,S1g0215h10,S4m0802h10,S1b0108h14,S1b0108h15,S1d0202h16,S1e0206h16,S1e0206h17,S1f0211h12,S2i0415h10,S3j0508h16,S4l0726h14,S4l0726h17,S4m0802h07,S4m0802h09,S4m0802h15,S4m0802h18,S4n1013h11,S4n1013h13,S5o1107h09,S1aH2,S1e0206h14,S1g0215h09,S1h0223h17,S2aH3,S2i0415h13,S3k0509h13,S3k0509h17,S4l0726h10,S5o1107h10,S5p1117h08,S5p1117h10,S1aH4,S1f0211h14,S1f0211h15,S1f0211h18,S1g0215h11,S1g0215h15,S1g0215h16,S2aH2,S2i0415h18,S3j0508h14,S3k0509h14,S4l0726h15,S4m0802h17,S4n1013h08,S5p1117h11,S1b0108h16,S1c0124h17,S1e0206h15,S1g0215h13,S3k0509h08,S3k0509h15,S4aH5,S4n1013h12,S5o1107h14,S1b0108h10,S1d0202h08,S1d0202h11,S1d0202h13,S1g0215h17,S1h0223h11,S4l0726h08,S4l0726h13,S4m0802h13,S4n1013h07,S4n1013h17,S5o1107h15,S5p1117h07,S5p1117h14,S1c0124h11,S1e0206h10,S1f0211h07,S1f0211h09,S1f0211h10,S1f0211h13,S1g0215h07,S3k0509h16,S5aH4,S1c0124h14,S1d0202h17,S1e0206h07,S1e0206h11,S1e0206h13,S1e0206h18,S1h0223h10,S1h0223h16,S2i0415h16,S3aH5,S4l0726h07,S4m0802h14,S4n1013h09,S5aH3,S5o1107h18,S1d0202h15,S3aH4,S3j0508h08,S3j0508h13,S3j0508h17,S3k0509h11,S4aH3,S4aH4,S4n1013h10,S5p1117h15,S5p1117h18</t>
+  </si>
+  <si>
+    <t>S1b0108h20,S1d0202h05,S1e0206h23,S2aH1,S3aH7,S3j0508h01,S3j0508h19,S3k0509h03,S3k0509h19,S3k0509h21,S4l0726h03,S5aH8,S5p1117h06,S1b0108h02,S1c0124h02,S1c0124h06,S1c0124h23,S1f0211h01,S1f0211h02,S1g0215h03,S1h0223h21,S2i0415h21,S3aH8,S3j0508h03,S3k0509h22,S5p1117h20,S1b0108h06,S1b0108h22,S1d0202h03,S1e0206h06,S1f0211h19,S4aH6,S4l0726h04,S4m0802h06,S4n1013h20,S5o1107h21,S1b0108h03,S1h0223h20,S3j0508h20,S3j0508h23,S4aH8,S4m0802h19,S4m0802h21,S5p1117h05,S1aH6,S1b0108h01,S1c0124h20,S1d0202h04,S1e0206h20,S1f0211h05,S1g0215h04,S1h0223h05,S1h0223h06,S1h0223h19,S1h0223h24,S3j0508h22,S3k0509h04,S4l0726h19,S4l0726h21,S4l0726h23,S4m0802h24,S5o1107h22,S1aH1,S1f0211h03,S2aH7,S2i0415h01,S4l0726h22,S4m0802h05,S4n1013h21,S1c0124h19,S1c0124h22,S1d0202h22,S1f0211h20,S1g0215h19,S1h0223h02,S2aH6,S2i0415h04,S2i0415h22,S3aH1,S5o1107h02,S1aH7,S1c0124h04,S1c0124h21,S1d0202h24,S1e0206h04,S3aH6,S4aH7,S4n1013h05,S4n1013h19,S5aH6,S5aH7,S5o1107h20,S5p1117h22,S1b0108h04,S1b0108h19,S1b0108h24,S1d0202h23,S1e0206h05,S1f0211h23,S1g0215h05,S1g0215h21,S1g0215h22,S2aH8,S2i0415h24,S3k0509h23,S4l0726h05,S4m0802h22,S5o1107h01,S5o1107h06,S5o1107h19,S5p1117h21,S5p1117h23,S1e0206h03,S1f0211h06,S1g0215h01,S1g0215h06,S2i0415h05,S2i0415h19,S2i0415h20,S3j0508h06,S3k0509h06,S3k0509h20,S4l0726h24,S4m0802h03,S5o1107h23,S5o1107h24,S1d0202h20,S1e0206h21,S1h0223h04,S3k0509h01,S4aH1,S5o1107h04,S5p1117h04,S1d0202h01,S1f0211h21,S1f0211h22,S1g0215h23,S1h0223h03,S2i0415h02,S2i0415h06,S3k0509h24,S4l0726h06,S4n1013h06,S4n1013h22,S5p1117h01,S5p1117h19,S1b0108h21,S3j0508h05,S3k0509h05,S4l0726h20,S4m0802h01,S4n1013h03,S4n1013h04,S1c0124h03,S1c0124h05,S1d0202h02,S1d0202h06,S1e0206h01,S1e0206h19,S1f0211h04,S1g0215h20,S4l0726h02,S4m0802h02,S4m0802h23,S4n1013h02,S5p1117h03,S5p1117h24,S1aH8,S1b0108h23,S1c0124h01,S1c0124h24,S1d0202h19,S1d0202h21,S1e0206h24,S1g0215h02,S1h0223h23,S2i0415h23,S3j0508h02,S3j0508h21,S4l0726h01,S4m0802h04,S4n1013h01,S4n1013h23,S4n1013h24,S5aH1,S5o1107h05,S5p1117h02,S1b0108h05,S1e0206h02,S1e0206h22,S1f0211h24,S1g0215h24,S1h0223h01,S1h0223h22,S2i0415h03,S3j0508h04,S3j0508h24,S3k0509h02,S4m0802h20,S5o1107h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0108h20,S1d0202h05,S1e0206h23,S2aH1,S3aH7,S3j0508h01,S3j0508h19,S3k0509h03,S3k0509h19,S3k0509h21,S4l0726h03,S5aH8,S5p1117h06,S1d0202h20,S1e0206h21,S1h0223h04,S3k0509h01,S4aH1,S5o1107h04,S5p1117h04,S1b0108h03,S1h0223h20,S3j0508h20,S3j0508h23,S4aH8,S4m0802h19,S4m0802h21,S5p1117h05,S1aH8,S1b0108h23,S1c0124h01,S1c0124h24,S1d0202h19,S1d0202h21,S1e0206h24,S1g0215h02,S1h0223h23,S2i0415h23,S3j0508h02,S3j0508h21,S4l0726h01,S4m0802h04,S4n1013h01,S4n1013h23,S4n1013h24,S5aH1,S5o1107h05,S5p1117h02,S1c0124h19,S1c0124h22,S1d0202h22,S1f0211h20,S1g0215h19,S1h0223h02,S2aH6,S2i0415h04,S2i0415h22,S3aH1,S5o1107h02,S1aH7,S1c0124h04,S1c0124h21,S1d0202h24,S1e0206h04,S3aH6,S4aH7,S4n1013h05,S4n1013h19,S5aH6,S5aH7,S5o1107h20,S5p1117h22,S1b0108h06,S1b0108h22,S1d0202h03,S1e0206h06,S1f0211h19,S4aH6,S4l0726h04,S4m0802h06,S4n1013h20,S5o1107h21,S1b0108h21,S3j0508h05,S3k0509h05,S4l0726h20,S4m0802h01,S4n1013h03,S4n1013h04,S1aH1,S1f0211h03,S2aH7,S2i0415h01,S4l0726h22,S4m0802h05,S4n1013h21,S1b0108h05,S1e0206h02,S1e0206h22,S1f0211h24,S1g0215h24,S1h0223h01,S1h0223h22,S2i0415h03,S3j0508h04,S3j0508h24,S3k0509h02,S4m0802h20,S5o1107h03,S1b0108h02,S1c0124h02,S1c0124h06,S1c0124h23,S1f0211h01,S1f0211h02,S1g0215h03,S1h0223h21,S2i0415h21,S3aH8,S3j0508h03,S3k0509h22,S5p1117h20,S1e0206h03,S1f0211h06,S1g0215h01,S1g0215h06,S2i0415h05,S2i0415h19,S2i0415h20,S3j0508h06,S3k0509h06,S3k0509h20,S4l0726h24,S4m0802h03,S5o1107h23,S5o1107h24,S1d0202h01,S1f0211h21,S1f0211h22,S1g0215h23,S1h0223h03,S2i0415h02,S2i0415h06,S3k0509h24,S4l0726h06,S4n1013h06,S4n1013h22,S5p1117h01,S5p1117h19,S1aH6,S1b0108h01,S1c0124h20,S1d0202h04,S1e0206h20,S1f0211h05,S1g0215h04,S1h0223h05,S1h0223h06,S1h0223h19,S1h0223h24,S3j0508h22,S3k0509h04,S4l0726h19,S4l0726h21,S4l0726h23,S4m0802h24,S5o1107h22,S1b0108h04,S1b0108h19,S1b0108h24,S1d0202h23,S1e0206h05,S1f0211h23,S1g0215h05,S1g0215h21,S1g0215h22,S2aH8,S2i0415h24,S3k0509h23,S4l0726h05,S4m0802h22,S5o1107h01,S5o1107h06,S5o1107h19,S5p1117h21,S5p1117h23,S1c0124h03,S1c0124h05,S1d0202h02,S1d0202h06,S1e0206h01,S1e0206h19,S1f0211h04,S1g0215h20,S4l0726h02,S4m0802h02,S4m0802h23,S4n1013h02,S5p1117h03,S5p1117h24</v>
+        <v>S1b0108h20,S1d0202h05,S1e0206h23,S2aH1,S3aH7,S3j0508h01,S3j0508h19,S3k0509h03,S3k0509h19,S3k0509h21,S4l0726h03,S5aH8,S5p1117h06,S1b0108h02,S1c0124h02,S1c0124h06,S1c0124h23,S1f0211h01,S1f0211h02,S1g0215h03,S1h0223h21,S2i0415h21,S3aH8,S3j0508h03,S3k0509h22,S5p1117h20,S1b0108h06,S1b0108h22,S1d0202h03,S1e0206h06,S1f0211h19,S4aH6,S4l0726h04,S4m0802h06,S4n1013h20,S5o1107h21,S1b0108h03,S1h0223h20,S3j0508h20,S3j0508h23,S4aH8,S4m0802h19,S4m0802h21,S5p1117h05,S1aH6,S1b0108h01,S1c0124h20,S1d0202h04,S1e0206h20,S1f0211h05,S1g0215h04,S1h0223h05,S1h0223h06,S1h0223h19,S1h0223h24,S3j0508h22,S3k0509h04,S4l0726h19,S4l0726h21,S4l0726h23,S4m0802h24,S5o1107h22,S1aH1,S1f0211h03,S2aH7,S2i0415h01,S4l0726h22,S4m0802h05,S4n1013h21,S1c0124h19,S1c0124h22,S1d0202h22,S1f0211h20,S1g0215h19,S1h0223h02,S2aH6,S2i0415h04,S2i0415h22,S3aH1,S5o1107h02,S1aH7,S1c0124h04,S1c0124h21,S1d0202h24,S1e0206h04,S3aH6,S4aH7,S4n1013h05,S4n1013h19,S5aH6,S5aH7,S5o1107h20,S5p1117h22,S1b0108h04,S1b0108h19,S1b0108h24,S1d0202h23,S1e0206h05,S1f0211h23,S1g0215h05,S1g0215h21,S1g0215h22,S2aH8,S2i0415h24,S3k0509h23,S4l0726h05,S4m0802h22,S5o1107h01,S5o1107h06,S5o1107h19,S5p1117h21,S5p1117h23,S1e0206h03,S1f0211h06,S1g0215h01,S1g0215h06,S2i0415h05,S2i0415h19,S2i0415h20,S3j0508h06,S3k0509h06,S3k0509h20,S4l0726h24,S4m0802h03,S5o1107h23,S5o1107h24,S1d0202h20,S1e0206h21,S1h0223h04,S3k0509h01,S4aH1,S5o1107h04,S5p1117h04,S1d0202h01,S1f0211h21,S1f0211h22,S1g0215h23,S1h0223h03,S2i0415h02,S2i0415h06,S3k0509h24,S4l0726h06,S4n1013h06,S4n1013h22,S5p1117h01,S5p1117h19,S1b0108h21,S3j0508h05,S3k0509h05,S4l0726h20,S4m0802h01,S4n1013h03,S4n1013h04,S1c0124h03,S1c0124h05,S1d0202h02,S1d0202h06,S1e0206h01,S1e0206h19,S1f0211h04,S1g0215h20,S4l0726h02,S4m0802h02,S4m0802h23,S4n1013h02,S5p1117h03,S5p1117h24,S1aH8,S1b0108h23,S1c0124h01,S1c0124h24,S1d0202h19,S1d0202h21,S1e0206h24,S1g0215h02,S1h0223h23,S2i0415h23,S3j0508h02,S3j0508h21,S4l0726h01,S4m0802h04,S4n1013h01,S4n1013h23,S4n1013h24,S5aH1,S5o1107h05,S5p1117h02,S1b0108h05,S1e0206h02,S1e0206h22,S1f0211h24,S1g0215h24,S1h0223h01,S1h0223h22,S2i0415h03,S3j0508h04,S3j0508h24,S3k0509h02,S4m0802h20,S5o1107h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0108h11,S1d0202h07,S2i0415h12,S3j0508h11,S3j0508h12,S3k0509h12,S3k0509h18,S4aH2,S4l0726h09,S4m0802h16,S4n1013h14,S5p1117h16,S1aH4,S1f0211h14,S1f0211h15,S1f0211h18,S1g0215h11,S1g0215h15,S1g0215h16,S2aH2,S2i0415h18,S3j0508h14,S3k0509h14,S4l0726h15,S4m0802h17,S4n1013h08,S5p1117h11,S1d0202h14,S1e0206h12,S1f0211h17,S1h0223h09,S2i0415h17,S4n1013h15,S5o1107h11,S5o1107h17,S1c0124h14,S1d0202h17,S1e0206h07,S1e0206h11,S1e0206h13,S1e0206h18,S1h0223h10,S1h0223h16,S2i0415h16,S3aH5,S4l0726h07,S4m0802h14,S4n1013h09,S5aH3,S5o1107h18,S1c0124h09,S1c0124h16,S1f0211h08,S1g0215h08,S1g0215h18,S3j0508h09,S3j0508h18,S3k0509h07,S4l0726h18,S4m0802h11,S5o1107h13,S5p1117h13,S1aH3,S1b0108h07,S1c0124h08,S1d0202h10,S1f0211h11,S1g0215h10,S4m0802h10,S1c0124h07,S1g0215h12,S1h0223h08,S1h0223h15,S1h0223h18,S2i0415h15,S3aH3,S3j0508h07,S3j0508h10,S3k0509h09,S4n1013h16,S1b0108h10,S1d0202h08,S1d0202h11,S1d0202h13,S1g0215h17,S1h0223h11,S4l0726h08,S4l0726h13,S4m0802h13,S4n1013h07,S4n1013h17,S5o1107h15,S5p1117h07,S5p1117h14,S1b0108h09,S1b0108h17,S1b0108h18,S1c0124h12,S1d0202h18,S1f0211h16,S1h0223h07,S2i0415h07,S2i0415h08,S2i0415h11,S4m0802h12,S4n1013h18,S5o1107h12,S5o1107h16,S5p1117h09,S1d0202h15,S3aH4,S3j0508h08,S3j0508h13,S3j0508h17,S3k0509h11,S4aH3,S4aH4,S4n1013h10,S5p1117h15,S5p1117h18,S1c0124h13,S1c0124h18,S1e0206h08,S1h0223h12,S1h0223h14,S3aH2,S3j0508h15,S4l0726h11,S4l0726h12,S4m0802h08,S5p1117h12,S5p1117h17,S1aH2,S1e0206h14,S1g0215h09,S1h0223h17,S2aH3,S2i0415h13,S3k0509h13,S3k0509h17,S4l0726h10,S5o1107h10,S5p1117h08,S5p1117h10,S1b0108h16,S1c0124h17,S1e0206h15,S1g0215h13,S3k0509h08,S3k0509h15,S4aH5,S4n1013h12,S5o1107h14,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0124h10,S1c0124h15,S1d0202h09,S1d0202h12,S1e0206h09,S1g0215h14,S1h0223h13,S2aH4,S2aH5,S2i0415h09,S2i0415h14,S3k0509h10,S4l0726h16,S5aH2,S5aH5,S5o1107h07,S5o1107h08,S1b0108h14,S1b0108h15,S1d0202h16,S1e0206h16,S1e0206h17,S1f0211h12,S2i0415h10,S3j0508h16,S4l0726h14,S4l0726h17,S4m0802h07,S4m0802h09,S4m0802h15,S4m0802h18,S4n1013h11,S4n1013h13,S5o1107h09,S1c0124h11,S1e0206h10,S1f0211h07,S1f0211h09,S1f0211h10,S1f0211h13,S1g0215h07,S3k0509h16,S5aH4</v>
+        <v>S1b0108h11,S1d0202h07,S2i0415h12,S3j0508h11,S3j0508h12,S3k0509h12,S3k0509h18,S4aH2,S4l0726h09,S4m0802h16,S4n1013h14,S5p1117h16,S1c0124h13,S1c0124h18,S1e0206h08,S1h0223h12,S1h0223h14,S3aH2,S3j0508h15,S4l0726h11,S4l0726h12,S4m0802h08,S5p1117h12,S5p1117h17,S1c0124h07,S1g0215h12,S1h0223h08,S1h0223h15,S1h0223h18,S2i0415h15,S3aH3,S3j0508h07,S3j0508h10,S3k0509h09,S4n1013h16,S1d0202h14,S1e0206h12,S1f0211h17,S1h0223h09,S2i0415h17,S4n1013h15,S5o1107h11,S5o1107h17,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0124h10,S1c0124h15,S1d0202h09,S1d0202h12,S1e0206h09,S1g0215h14,S1h0223h13,S2aH4,S2aH5,S2i0415h09,S2i0415h14,S3k0509h10,S4l0726h16,S5aH2,S5aH5,S5o1107h07,S5o1107h08,S1b0108h09,S1b0108h17,S1b0108h18,S1c0124h12,S1d0202h18,S1f0211h16,S1h0223h07,S2i0415h07,S2i0415h08,S2i0415h11,S4m0802h12,S4n1013h18,S5o1107h12,S5o1107h16,S5p1117h09,S1c0124h09,S1c0124h16,S1f0211h08,S1g0215h08,S1g0215h18,S3j0508h09,S3j0508h18,S3k0509h07,S4l0726h18,S4m0802h11,S5o1107h13,S5p1117h13,S1aH3,S1b0108h07,S1c0124h08,S1d0202h10,S1f0211h11,S1g0215h10,S4m0802h10,S1b0108h14,S1b0108h15,S1d0202h16,S1e0206h16,S1e0206h17,S1f0211h12,S2i0415h10,S3j0508h16,S4l0726h14,S4l0726h17,S4m0802h07,S4m0802h09,S4m0802h15,S4m0802h18,S4n1013h11,S4n1013h13,S5o1107h09,S1aH2,S1e0206h14,S1g0215h09,S1h0223h17,S2aH3,S2i0415h13,S3k0509h13,S3k0509h17,S4l0726h10,S5o1107h10,S5p1117h08,S5p1117h10,S1aH4,S1f0211h14,S1f0211h15,S1f0211h18,S1g0215h11,S1g0215h15,S1g0215h16,S2aH2,S2i0415h18,S3j0508h14,S3k0509h14,S4l0726h15,S4m0802h17,S4n1013h08,S5p1117h11,S1b0108h16,S1c0124h17,S1e0206h15,S1g0215h13,S3k0509h08,S3k0509h15,S4aH5,S4n1013h12,S5o1107h14,S1b0108h10,S1d0202h08,S1d0202h11,S1d0202h13,S1g0215h17,S1h0223h11,S4l0726h08,S4l0726h13,S4m0802h13,S4n1013h07,S4n1013h17,S5o1107h15,S5p1117h07,S5p1117h14,S1c0124h11,S1e0206h10,S1f0211h07,S1f0211h09,S1f0211h10,S1f0211h13,S1g0215h07,S3k0509h16,S5aH4,S1c0124h14,S1d0202h17,S1e0206h07,S1e0206h11,S1e0206h13,S1e0206h18,S1h0223h10,S1h0223h16,S2i0415h16,S3aH5,S4l0726h07,S4m0802h14,S4n1013h09,S5aH3,S5o1107h18,S1d0202h15,S3aH4,S3j0508h08,S3j0508h13,S3j0508h17,S3k0509h11,S4aH3,S4aH4,S4n1013h10,S5p1117h15,S5p1117h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DC0724-5840-44B6-9271-DCD45FDA0F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD829B8E-A1E2-4AC1-8C3D-B9955FF9C047}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6968,7 +6968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CBD16F-E4A7-4565-ACDC-2B3B49053BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138AAC1D-450D-45AA-B182-069BF6BF6164}">
   <dimension ref="B2:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7047,10 +7047,10 @@
         <v>868</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>0.18708881578947367</v>
+        <v>0.36981907894736848</v>
       </c>
       <c r="O4" t="s">
         <v>879</v>
@@ -7082,10 +7082,10 @@
         <v>868</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.1270970394736842</v>
+        <v>0.40172697368421056</v>
       </c>
       <c r="O5" t="s">
         <v>879</v>
@@ -7117,10 +7117,10 @@
         <v>868</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.40172697368421045</v>
+        <v>0.11426809210526317</v>
       </c>
       <c r="O6" t="s">
         <v>879</v>
@@ -7152,10 +7152,10 @@
         <v>868</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7">
-        <v>0.11426809210526315</v>
+        <v>0.12709703947368423</v>
       </c>
       <c r="O7" t="s">
         <v>879</v>
@@ -7187,10 +7187,10 @@
         <v>868</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N8">
-        <v>0.36981907894736832</v>
+        <v>0.1870888157894737</v>
       </c>
       <c r="O8" t="s">
         <v>879</v>
@@ -17472,7 +17472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8EC18F-33A8-4263-AC2D-267A9943DCED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6592D07-695B-465D-9803-C625C303A3EB}">
   <dimension ref="B2:O803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
